--- a/BTL_TKXDPM/NhanVien.xlsx
+++ b/BTL_TKXDPM/NhanVien.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuanhduc/Downloads/TKXDPM/BTL_TKXDPM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C032B3C-6453-534D-B4FC-8FF51FD14429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19275CF6-C19D-6340-80CE-37AB3270E50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16780" xr2:uid="{3799D126-82C7-1344-91BE-20386A53E4B6}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16740" xr2:uid="{3799D126-82C7-1344-91BE-20386A53E4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840DEB83-8AF2-E84D-BC2D-43D0DED78890}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
